--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F01A80-4B4B-4126-AA95-1454EBDA44D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57608EA1-66B0-416A-BB2E-B7DA3DA90FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="28680" yWindow="-5520" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="272">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -872,54 +872,49 @@
     <t>Strongly recommended to include if an ActivityComplex is present. The referenced ActivityComplex must exist.</t>
   </si>
   <si>
+    <t>Mandatory if there are StandardCoverageDetail objects present that represent the standard coverage for the UtilityNetwork. The referenced StandardCoverageDetail(s) must exist.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more depth objects are present for any element within the UtilityNetwork. The referenced object(s) must exist.</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL. The referenced element(s) must exist.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more Annotation objects are present. The referenced Annotation(s) must exist.</t>
+  </si>
+  <si>
+    <t>Strongly recommended to include if available. The referenced cable(s) must exist.</t>
+  </si>
+  <si>
+    <t>Strongly recommended to include if available. The referenced pipe(s) must exist.</t>
+  </si>
+  <si>
+    <t>Strongly recommended to include if available. The referenced duct(s) must exist.</t>
+  </si>
+  <si>
+    <t>Recommended to include if applicable. The referenced node(s) must exist.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more ExtraPlan objects are present. The referenced Document(s) must exist.</t>
+  </si>
+  <si>
+    <t>v4.0</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more elements are present. The referenced element(s) must exist.
+Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex or ProtectedArea.</t>
+  </si>
+  <si>
     <t>Mandatory if one or more ActivityComplex objects are available. The referenced ActivityComplex must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more elements are present. The referenced element(s) must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document or Annotation.</t>
+Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex or ProtectedArea</t>
   </si>
   <si>
     <t>Mandatory when one or more ProtectedArea objects are present. The referenced ProtectedArea(s) must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
-  </si>
-  <si>
-    <t>Mandatory if there are StandardCoverageDetail objects present that represent the standard coverage for the UtilityNetwork. The referenced StandardCoverageDetail(s) must exist.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more depth objects are present for any element within the UtilityNetwork. The referenced object(s) must exist.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more Annotation objects are present. The referenced Annotation(s) must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
-  </si>
-  <si>
-    <t>Strict obligation in IMKL. The referenced element(s) must exist.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more Annotation objects are present. The referenced Annotation(s) must exist.</t>
-  </si>
-  <si>
-    <t>Strongly recommended to include if available. The referenced cable(s) must exist.</t>
-  </si>
-  <si>
-    <t>Strongly recommended to include if available. The referenced pipe(s) must exist.</t>
-  </si>
-  <si>
-    <t>Strongly recommended to include if available. The referenced duct(s) must exist.</t>
-  </si>
-  <si>
-    <t>Recommended to include if applicable. The referenced node(s) must exist.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more ExtraPlan objects are present. The referenced Document(s) must exist.</t>
-  </si>
-  <si>
-    <t>Mandatory when one or more Document or ExtraPlan objects are present. The referenced Document(s) must exist.
-Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex, ProtectedArea, Document, ExtraPlan or Annotation.</t>
-  </si>
-  <si>
-    <t>v4.0</t>
+Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex or ProtectedArea.</t>
+  </si>
+  <si>
+    <t>Mandatory when one or more Document or ExtraPlan objects are present. The referenced Document(s) must exist.</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC605C2-C5D4-4825-9E11-90EE9076291A}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1437,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -2275,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2290,7 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3128,7 +3123,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3148,7 +3143,7 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3981,7 +3976,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4001,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4829,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4854,7 +4849,7 @@
         <v>132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5287,7 +5282,7 @@
         <v>132</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5307,7 +5302,7 @@
         <v>132</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5327,7 +5322,7 @@
         <v>132</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5687,7 +5682,7 @@
         <v>132</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5702,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6455,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6475,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7193,7 +7188,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7213,7 +7208,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7546,7 +7541,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7926,7 +7921,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7946,7 +7941,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8185,7 +8180,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8565,7 +8560,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8585,7 +8580,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8824,7 +8819,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9224,7 +9219,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9244,7 +9239,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9262,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9326,7 +9321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9343,7 +9338,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9386,7 +9381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9403,7 +9398,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9643,7 +9638,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9663,10 +9658,10 @@
         <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9683,10 +9678,10 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9706,7 +9701,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9723,7 +9718,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -9956,7 +9951,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10356,7 +10351,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10376,7 +10371,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11195,7 +11190,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13812,7 +13807,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -14765,7 +14760,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -16251,7 +16246,7 @@
         <v>132</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16271,7 +16266,7 @@
         <v>132</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17024,7 +17019,7 @@
         <v>132</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17044,7 +17039,7 @@
         <v>132</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17477,7 +17472,7 @@
         <v>132</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17497,7 +17492,7 @@
         <v>132</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17857,7 +17852,7 @@
         <v>132</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17877,7 +17872,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17946,15 +17941,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18214,15 +18200,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18240,4 +18227,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A91AA7-A37A-481E-A6FC-7E5357A8BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D868D-5885-47CC-928D-059779F53671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="2388" windowWidth="34560" windowHeight="22452" firstSheet="13" activeTab="22" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="20" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BC120-06A7-4659-AA0B-1A9C52390F35}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8AAE2A-CE0F-40D3-BDBB-F982DDEB87C4}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7368,7 +7368,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9305,7 +9305,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10436,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409E086-D93E-407F-8B48-13A80DD3324C}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10557,7 +10557,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10577,7 +10577,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11236,8 +11236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965E3C8A-CCC0-4A57-BA70-5E57D6D07565}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17988,15 +17988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18256,15 +18247,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18282,4 +18274,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D868D-5885-47CC-928D-059779F53671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9786C-3FB8-42E0-9532-1D3834AC3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="20" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="25" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,44 +1620,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2473,44 +2473,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3262,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0553AC-C8D7-405B-BF7B-D5436FA88A29}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,44 +3326,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4115,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804D63D-6629-4BE3-A1A2-E77803CCA220}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4179,44 +4179,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5052,44 +5052,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5802,7 +5802,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5865,44 +5865,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6534,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1F68D-948C-4BF5-8AE7-6399B7AADE69}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6598,44 +6598,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8006,7 +8006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D7E87-996B-4413-BBAA-621CDA75E7DB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -10436,7 +10436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9409E086-D93E-407F-8B48-13A80DD3324C}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -12207,8 +12207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B0875E-4BBC-4337-B179-D80DFA58D9BF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15593,7 +15593,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15656,44 +15656,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16386,7 +16386,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16449,44 +16449,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17158,8 +17158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17222,44 +17222,44 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17988,6 +17988,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18247,16 +18256,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18274,12 +18282,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9786C-3FB8-42E0-9532-1D3834AC3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492150D-29DD-4A61-86DE-3ED7A6515799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="25" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
@@ -667,9 +667,6 @@
     <t>referenceSurface &gt; locationSurvey &gt; recordedBy</t>
   </si>
   <si>
-    <t>Must be present if the location of the referenceSurface is different from the location of the element the DepthDetail is linked to.</t>
-  </si>
-  <si>
     <t>No extra rules</t>
   </si>
   <si>
@@ -768,9 +765,6 @@
   <si>
     <t>Strongly recommended when a verticalPosition is used instead of a height or depth if available .
 Additional check on the use of the EPSG:5710 srs and on presence of the srsDimension. The srsDimension must be set to 1.</t>
-  </si>
-  <si>
-    <t>Must be present if the location of the referenceSurface is different from the location of the element the CoverageDetail is linked to.</t>
   </si>
   <si>
     <t>A DepthDetail should have exactly 1 of verticalPosition, height or depth.
@@ -801,10 +795,6 @@
 Geometry must be a valid polygon. Multipolygons are not allowed.</t>
   </si>
   <si>
-    <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
-Geometry must be a valid point, line, polygon or multipart geometry consisting of points, lines and/or polygons.</t>
-  </si>
-  <si>
     <t>red: obligation/prohibition</t>
   </si>
   <si>
@@ -959,6 +949,19 @@
   <si>
     <t>A StandardCoverageDetail should have exactly 1 of  height or depth.
 The uom must be expressed in either urn:ogc:def:uom:OGC::mm, urn:ogc:def:uom:OGC::cm, urn:ogc:def:uom:OGC::m. Must have a positive value</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
+Geometry must be a valid point, line, polygon or multipoint, multiline or multipolygon geometry. A combination of geometry types (points, lines and polygons) in a single object is not allowed.</t>
+  </si>
+  <si>
+    <t>Must be present if the location of the referenceSurface is different from the location of the element the DepthDetail is linked to. The location must be a valid point geometry.
+Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
+Must be a valid point geometry.</t>
+  </si>
+  <si>
+    <t>Must be present if the location of the referenceSurface is different from the location of the element the CoverageDetail is linked to.
+Additional check on the use of Lambert2008 coordinates. Allowed geometry types are: Point and Line</t>
   </si>
 </sst>
 </file>
@@ -1473,38 +1476,38 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1514,37 +1517,37 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1660,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1760,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1797,7 +1800,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1877,7 +1880,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1897,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2180,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2220,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2237,7 +2240,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2277,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2297,7 +2300,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2317,7 +2320,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2377,7 +2380,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2510,7 +2513,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2650,7 +2653,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2730,7 +2733,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3030,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3070,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3090,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3110,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3130,7 +3133,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3150,7 +3153,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3170,7 +3173,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3193,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3230,7 +3233,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3363,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3463,7 +3466,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3503,7 +3506,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3583,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3648,7 +3651,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3883,7 +3886,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3923,7 +3926,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3943,7 +3946,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3963,7 +3966,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3983,7 +3986,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4003,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4023,7 +4026,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4046,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4083,7 +4086,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4216,7 +4219,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4316,7 +4319,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4356,7 +4359,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4436,7 +4439,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4736,7 +4739,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4776,7 +4779,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4796,7 +4799,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4816,7 +4819,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4836,7 +4839,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4856,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4876,7 +4879,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4896,7 +4899,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4936,7 +4939,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5089,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5192,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5229,7 +5232,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5309,7 +5312,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5329,7 +5332,7 @@
         <v>129</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5349,7 +5352,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5369,7 +5372,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5589,7 +5592,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5629,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5649,7 +5652,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5669,7 +5672,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5689,7 +5692,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5709,7 +5712,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5729,7 +5732,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5749,7 +5752,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5789,7 +5792,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5802,7 +5805,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5902,7 +5905,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5942,7 +5945,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6082,7 +6085,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6202,7 +6205,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6342,7 +6345,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6382,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6402,7 +6405,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6422,7 +6425,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6442,7 +6445,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6462,7 +6465,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6482,7 +6485,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6502,7 +6505,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6522,7 +6525,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6635,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6675,7 +6678,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6815,7 +6818,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6935,7 +6938,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7075,7 +7078,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7115,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7135,7 +7138,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7155,7 +7158,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7175,7 +7178,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7195,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7215,7 +7218,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7235,7 +7238,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7255,7 +7258,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7368,7 +7371,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7468,7 +7471,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7508,7 +7511,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7548,7 +7551,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7588,7 +7591,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7628,7 +7631,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7688,7 +7691,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7808,7 +7811,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7848,7 +7851,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7868,7 +7871,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7888,7 +7891,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7908,7 +7911,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7928,7 +7931,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7968,7 +7971,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7988,7 +7991,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8107,7 +8110,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8147,7 +8150,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8187,7 +8190,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8227,7 +8230,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8267,7 +8270,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8327,7 +8330,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8447,7 +8450,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8487,7 +8490,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8507,7 +8510,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8527,7 +8530,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8547,7 +8550,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8567,7 +8570,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8607,7 +8610,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8627,7 +8630,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8746,7 +8749,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8786,7 +8789,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8826,7 +8829,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8866,7 +8869,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8886,7 +8889,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8926,7 +8929,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8986,7 +8989,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9106,7 +9109,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9146,7 +9149,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9166,7 +9169,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9186,7 +9189,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9206,7 +9209,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9226,7 +9229,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9266,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9286,7 +9289,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9385,7 +9388,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9445,7 +9448,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9545,7 +9548,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9645,7 +9648,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9685,7 +9688,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9705,7 +9708,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9725,7 +9728,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9745,7 +9748,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9765,7 +9768,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9878,7 +9881,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9918,7 +9921,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9958,7 +9961,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9998,7 +10001,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10018,7 +10021,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10058,7 +10061,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10118,7 +10121,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10238,7 +10241,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10278,7 +10281,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10298,7 +10301,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10318,7 +10321,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10338,7 +10341,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10358,7 +10361,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10398,7 +10401,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10418,7 +10421,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10537,7 +10540,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10752,7 +10755,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10852,7 +10855,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11012,7 +11015,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11052,7 +11055,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11092,7 +11095,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11112,7 +11115,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11132,7 +11135,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11152,7 +11155,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11172,7 +11175,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -11337,7 +11340,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11417,7 +11420,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11437,7 +11440,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11502,7 +11505,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11602,7 +11605,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11682,7 +11685,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11722,7 +11725,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11782,7 +11785,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11822,7 +11825,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11842,7 +11845,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11875,7 +11878,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11975,7 +11978,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12018,7 +12021,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>168</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12075,7 +12078,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12135,7 +12138,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12175,7 +12178,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -12195,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -12208,7 +12211,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12308,7 +12311,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12333,10 +12336,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -12348,15 +12351,15 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -12373,10 +12376,10 @@
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -12388,15 +12391,15 @@
         <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>49</v>
@@ -12408,7 +12411,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -12448,7 +12451,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12468,7 +12471,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12488,7 +12491,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12508,7 +12511,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12528,7 +12531,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -12661,7 +12664,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12801,7 +12804,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12841,7 +12844,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12921,7 +12924,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12961,7 +12964,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12981,7 +12984,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13001,7 +13004,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13021,7 +13024,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13041,7 +13044,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -13094,7 +13097,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13194,7 +13197,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13219,7 +13222,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -13254,7 +13257,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13274,7 +13277,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13294,7 +13297,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13334,7 +13337,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13354,7 +13357,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13374,7 +13377,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13394,7 +13397,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13414,10 +13417,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -13434,7 +13437,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13454,7 +13457,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13474,7 +13477,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13514,7 +13517,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13534,7 +13537,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13554,7 +13557,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13574,7 +13577,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13594,7 +13597,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13614,7 +13617,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13634,7 +13637,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13654,7 +13657,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13694,7 +13697,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13722,7 +13725,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -13734,7 +13737,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13742,7 +13745,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -13754,7 +13757,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13762,7 +13765,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -13774,7 +13777,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13794,7 +13797,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13814,7 +13817,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13854,7 +13857,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -13866,8 +13869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEEBB16-5094-4A68-A615-43B0896E521F}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13967,7 +13970,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13992,7 +13995,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -14027,7 +14030,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14047,7 +14050,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14067,7 +14070,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14107,7 +14110,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14127,7 +14130,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14147,7 +14150,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14167,7 +14170,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14187,10 +14190,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14227,7 +14230,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14247,7 +14250,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14287,7 +14290,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14307,7 +14310,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14327,7 +14330,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14347,7 +14350,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14367,7 +14370,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14387,7 +14390,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14407,7 +14410,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14427,7 +14430,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14467,7 +14470,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14495,7 +14498,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -14507,7 +14510,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14515,7 +14518,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -14527,7 +14530,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14535,7 +14538,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -14547,7 +14550,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14567,7 +14570,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14587,7 +14590,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14607,7 +14610,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14647,7 +14650,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14675,7 +14678,7 @@
         <v>63</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>59</v>
@@ -14687,7 +14690,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14695,7 +14698,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>59</v>
@@ -14707,7 +14710,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14715,7 +14718,7 @@
         <v>65</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>59</v>
@@ -14727,7 +14730,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14747,7 +14750,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14767,7 +14770,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14807,7 +14810,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -14920,7 +14923,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14945,7 +14948,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -14980,7 +14983,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15000,7 +15003,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15020,7 +15023,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15060,7 +15063,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15080,7 +15083,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15100,7 +15103,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15120,7 +15123,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15140,7 +15143,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15160,7 +15163,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15180,7 +15183,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15200,7 +15203,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15240,7 +15243,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15260,7 +15263,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15280,7 +15283,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15300,7 +15303,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15320,7 +15323,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15340,7 +15343,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15360,7 +15363,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15380,7 +15383,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15420,7 +15423,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15448,7 +15451,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -15460,7 +15463,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15468,7 +15471,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -15480,7 +15483,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15488,7 +15491,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -15500,7 +15503,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -15520,7 +15523,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15540,7 +15543,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -15560,7 +15563,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15693,7 +15696,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15793,7 +15796,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15833,7 +15836,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16153,7 +16156,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16193,7 +16196,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16213,7 +16216,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16233,7 +16236,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16253,7 +16256,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -16273,7 +16276,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16293,7 +16296,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16313,7 +16316,7 @@
         <v>129</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16353,7 +16356,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -16373,7 +16376,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -16486,7 +16489,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16586,7 +16589,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16626,7 +16629,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16926,7 +16929,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16966,7 +16969,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16986,7 +16989,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17006,7 +17009,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17026,7 +17029,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17046,7 +17049,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17066,7 +17069,7 @@
         <v>129</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17086,7 +17089,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17126,7 +17129,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -17146,7 +17149,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -17259,7 +17262,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17359,7 +17362,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17399,7 +17402,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17479,7 +17482,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17499,7 +17502,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17519,7 +17522,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17539,7 +17542,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17759,7 +17762,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17799,7 +17802,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17819,7 +17822,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17839,7 +17842,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17859,7 +17862,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17879,7 +17882,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17899,7 +17902,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17919,7 +17922,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17959,7 +17962,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17979,7 +17982,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -17988,15 +17991,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18256,15 +18250,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18282,4 +18277,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5492150D-29DD-4A61-86DE-3ED7A6515799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADAD5AB-41F3-4488-B8B3-F827934CA1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="25" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="21" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="281">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>Should not be used for StandardCoverageDetail.</t>
-  </si>
-  <si>
-    <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.</t>
   </si>
   <si>
     <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
@@ -1487,7 +1484,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -1532,7 +1529,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1660,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1760,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1877,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1900,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2240,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2280,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2300,7 +2297,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2320,7 +2317,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2340,7 +2337,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2380,7 +2377,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2513,7 +2510,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2613,7 +2610,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2653,7 +2650,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2733,7 +2730,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3093,7 +3090,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3133,7 +3130,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3153,7 +3150,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3173,7 +3170,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3193,7 +3190,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3233,7 +3230,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3366,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3506,7 +3503,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3586,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3651,7 +3648,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3946,7 +3943,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3986,7 +3983,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4006,7 +4003,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4026,7 +4023,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4046,7 +4043,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4083,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,7 +4216,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4319,7 +4316,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4359,7 +4356,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4439,7 +4436,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4799,7 +4796,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4839,7 +4836,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4859,7 +4856,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4876,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4899,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4939,7 +4936,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5092,7 +5089,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5192,7 +5189,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5232,7 +5229,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5312,7 +5309,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5332,7 +5329,7 @@
         <v>129</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5352,7 +5349,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5369,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5652,7 +5649,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5689,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5712,7 +5709,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5732,7 +5729,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5752,7 +5749,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5792,7 +5789,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5905,7 +5902,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5945,7 +5942,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6085,7 +6082,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6205,7 +6202,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6402,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6445,7 +6442,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6465,7 +6462,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6485,7 +6482,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6502,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6525,7 +6522,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6638,7 +6635,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6678,7 +6675,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6818,7 +6815,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6938,7 +6935,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7138,7 +7135,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7178,7 +7175,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7198,7 +7195,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7218,7 +7215,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7238,7 +7235,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7258,7 +7255,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7468,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7511,7 +7508,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7551,7 +7548,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7591,7 +7588,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7631,7 +7628,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7691,7 +7688,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7871,7 +7868,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7911,7 +7908,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7931,7 +7928,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7971,7 +7968,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7991,7 +7988,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8110,7 +8107,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8150,7 +8147,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8190,7 +8187,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8230,7 +8227,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8270,7 +8267,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8330,7 +8327,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8510,7 +8507,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8550,7 +8547,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8570,7 +8567,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8610,7 +8607,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8630,7 +8627,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8749,7 +8746,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8789,7 +8786,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8829,7 +8826,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8869,7 +8866,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8889,7 +8886,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8929,7 +8926,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8989,7 +8986,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9169,7 +9166,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9209,7 +9206,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9229,7 +9226,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9269,7 +9266,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9289,7 +9286,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9388,7 +9385,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9448,7 +9445,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9548,7 +9545,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9648,7 +9645,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9688,7 +9685,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9708,7 +9705,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9728,7 +9725,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9748,7 +9745,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9768,7 +9765,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9878,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9921,7 +9918,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9961,7 +9958,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10001,7 +9998,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10021,7 +10018,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10061,7 +10058,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10121,7 +10118,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10301,7 +10298,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10341,7 +10338,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10361,7 +10358,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10401,7 +10398,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10421,7 +10418,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10540,7 +10537,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10754,8 +10751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97D51E3-6157-4789-B11D-E5D0ED63B0B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10855,7 +10852,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10998,7 +10995,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
@@ -11014,8 +11011,8 @@
       <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>231</v>
+      <c r="F13" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11115,7 +11112,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11155,7 +11152,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11175,7 +11172,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -11340,7 +11337,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11420,7 +11417,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11440,7 +11437,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11505,7 +11502,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11605,7 +11602,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11685,7 +11682,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11785,7 +11782,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11825,7 +11822,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11845,7 +11842,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11978,7 +11975,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12038,7 +12035,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12138,7 +12135,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12178,7 +12175,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -12198,7 +12195,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -12210,7 +12207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B0875E-4BBC-4337-B179-D80DFA58D9BF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -12311,7 +12308,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12471,7 +12468,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12804,7 +12801,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12844,7 +12841,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12984,7 +12981,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13024,7 +13021,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13044,7 +13041,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -13197,7 +13194,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13222,7 +13219,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -13357,7 +13354,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13397,7 +13394,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13417,7 +13414,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -13437,7 +13434,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13537,7 +13534,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13577,7 +13574,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13597,7 +13594,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13637,7 +13634,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13657,7 +13654,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13757,7 +13754,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13797,7 +13794,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13817,7 +13814,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13857,7 +13854,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -13970,7 +13967,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13995,7 +13992,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -14130,7 +14127,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14170,7 +14167,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14190,7 +14187,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14210,7 +14207,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14310,7 +14307,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14350,7 +14347,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14370,7 +14367,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14410,7 +14407,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14430,7 +14427,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14530,7 +14527,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14570,7 +14567,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14590,7 +14587,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14710,7 +14707,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14750,7 +14747,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14770,7 +14767,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14810,7 +14807,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -14923,7 +14920,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14948,7 +14945,7 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>190</v>
@@ -15083,7 +15080,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15123,7 +15120,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15143,7 +15140,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15263,7 +15260,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15303,7 +15300,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15323,7 +15320,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15363,7 +15360,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15383,7 +15380,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15483,7 +15480,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15523,7 +15520,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15543,7 +15540,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -15696,7 +15693,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15796,7 +15793,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15836,7 +15833,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16216,7 +16213,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16256,7 +16253,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -16276,7 +16273,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16296,7 +16293,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16316,7 +16313,7 @@
         <v>129</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16356,7 +16353,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -16376,7 +16373,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -16489,7 +16486,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16589,7 +16586,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16629,7 +16626,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16989,7 +16986,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17029,7 +17026,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17049,7 +17046,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17069,7 +17066,7 @@
         <v>129</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17089,7 +17086,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17129,7 +17126,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -17149,7 +17146,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -17262,7 +17259,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17362,7 +17359,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17402,7 +17399,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17482,7 +17479,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17502,7 +17499,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17522,7 +17519,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17542,7 +17539,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17822,7 +17819,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17862,7 +17859,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17882,7 +17879,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17902,7 +17899,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17922,7 +17919,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17962,7 +17959,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17982,7 +17979,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -17991,6 +17988,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18250,16 +18256,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18277,12 +18282,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADAD5AB-41F3-4488-B8B3-F827934CA1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37663FCD-997A-486A-8F2E-3A4075D6BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="9" activeTab="21" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="7908" yWindow="2052" windowWidth="34560" windowHeight="22452" firstSheet="13" activeTab="22" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="282">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -959,6 +959,9 @@
   <si>
     <t>Must be present if the location of the referenceSurface is different from the location of the element the CoverageDetail is linked to.
 Additional check on the use of Lambert2008 coordinates. Allowed geometry types are: Point and Line</t>
+  </si>
+  <si>
+    <t>cdata tags are not allowed. Is not visible in the viewer.</t>
   </si>
 </sst>
 </file>
@@ -10751,7 +10754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97D51E3-6157-4789-B11D-E5D0ED63B0B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -11236,8 +11239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965E3C8A-CCC0-4A57-BA70-5E57D6D07565}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11377,7 +11380,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17988,15 +17991,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18256,15 +18250,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18282,4 +18277,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37663FCD-997A-486A-8F2E-3A4075D6BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B04C98-A5F4-491D-BB13-B0C0F55B9E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7908" yWindow="2052" windowWidth="34560" windowHeight="22452" firstSheet="13" activeTab="22" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="10656" yWindow="6288" windowWidth="34560" windowHeight="22452" firstSheet="13" activeTab="24" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,6 @@
     <t>protectedAreaType</t>
   </si>
   <si>
-    <t>cdata tags are not allowed. Is not visible in the viewer if included.</t>
-  </si>
-  <si>
     <t>function</t>
   </si>
   <si>
@@ -962,6 +959,9 @@
   </si>
   <si>
     <t>cdata tags are not allowed. Is not visible in the viewer.</t>
+  </si>
+  <si>
+    <t>No extra rules. Is visible in the viewer.</t>
   </si>
 </sst>
 </file>
@@ -1476,38 +1476,38 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1517,37 +1517,37 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1660,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1880,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2180,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2260,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2320,7 +2320,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2380,7 +2380,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3073,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3113,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3153,7 +3153,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3233,7 +3233,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3506,7 +3506,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3886,7 +3886,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3946,7 +3946,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4026,7 +4026,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4046,7 +4046,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,7 +4219,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4319,7 +4319,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4359,7 +4359,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4739,7 +4739,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4779,7 +4779,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4819,7 +4819,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4839,7 +4839,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4859,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4939,7 +4939,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4992,7 +4992,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5092,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5192,7 +5192,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5232,7 +5232,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5312,7 +5312,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
         <v>129</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5372,7 +5372,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5592,7 +5592,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5632,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5672,7 +5672,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5732,7 +5732,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5792,7 +5792,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5905,7 +5905,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5945,7 +5945,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6085,7 +6085,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6205,7 +6205,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6345,7 +6345,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6425,7 +6425,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6505,7 +6505,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6525,7 +6525,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6638,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6678,7 +6678,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6938,7 +6938,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7078,7 +7078,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7118,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7138,7 +7138,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7158,7 +7158,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7178,7 +7178,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7198,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7218,7 +7218,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7238,7 +7238,7 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7258,7 +7258,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7471,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7511,7 +7511,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7551,7 +7551,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7591,7 +7591,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7631,7 +7631,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7691,7 +7691,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7851,7 +7851,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7871,7 +7871,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7891,7 +7891,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7911,7 +7911,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7931,7 +7931,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7971,7 +7971,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7991,7 +7991,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8110,7 +8110,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8150,7 +8150,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8190,7 +8190,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8230,7 +8230,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8270,7 +8270,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8330,7 +8330,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8450,7 +8450,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8490,7 +8490,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8510,7 +8510,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8530,7 +8530,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8550,7 +8550,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8570,7 +8570,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8610,7 +8610,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8630,7 +8630,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8749,7 +8749,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -8789,7 +8789,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8929,7 +8929,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9169,7 +9169,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9209,7 +9209,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9269,7 +9269,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9289,7 +9289,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9388,7 +9388,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9448,7 +9448,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9548,7 +9548,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9648,7 +9648,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9688,7 +9688,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9728,7 +9728,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9748,7 +9748,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9768,7 +9768,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9881,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9921,7 +9921,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9961,7 +9961,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10001,7 +10001,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10021,7 +10021,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10061,7 +10061,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10121,7 +10121,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10241,7 +10241,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10281,7 +10281,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10301,7 +10301,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10321,7 +10321,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10341,7 +10341,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10361,7 +10361,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10401,7 +10401,7 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -10421,7 +10421,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10540,7 +10540,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10855,7 +10855,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11055,7 +11055,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11115,7 +11115,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11135,7 +11135,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11155,7 +11155,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11175,7 +11175,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -11239,7 +11239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965E3C8A-CCC0-4A57-BA70-5E57D6D07565}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -11340,7 +11340,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11380,7 +11380,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11420,7 +11420,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11440,7 +11440,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11605,7 +11605,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11685,7 +11685,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11725,7 +11725,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11785,7 +11785,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11825,7 +11825,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11845,7 +11845,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11877,8 +11877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52607BE3-DC00-46A5-B151-3ABD17EEE6D5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11978,7 +11978,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11998,7 +11998,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12018,7 +12018,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -12038,7 +12038,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12078,7 +12078,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12138,7 +12138,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12178,7 +12178,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -12198,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -12311,7 +12311,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12336,10 +12336,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -12351,15 +12351,15 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -12376,10 +12376,10 @@
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -12391,15 +12391,15 @@
         <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>49</v>
@@ -12411,7 +12411,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -12451,7 +12451,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -12471,7 +12471,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12491,7 +12491,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12511,7 +12511,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12531,7 +12531,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -12595,7 +12595,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -12609,13 +12609,13 @@
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -12635,7 +12635,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>46</v>
@@ -12644,7 +12644,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -12655,7 +12655,7 @@
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -12664,18 +12664,18 @@
         <v>50</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>55</v>
@@ -12689,13 +12689,13 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>55</v>
@@ -12704,18 +12704,18 @@
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>45</v>
@@ -12729,13 +12729,13 @@
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>45</v>
@@ -12752,10 +12752,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>46</v>
@@ -12775,7 +12775,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12795,7 +12795,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>46</v>
@@ -12804,7 +12804,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12815,7 +12815,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -12835,7 +12835,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
@@ -12844,7 +12844,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12924,7 +12924,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12964,7 +12964,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12984,7 +12984,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13004,7 +13004,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13024,7 +13024,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13044,12 +13044,12 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>66</v>
@@ -13064,7 +13064,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13197,12 +13197,12 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>66</v>
@@ -13222,10 +13222,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
@@ -13245,7 +13245,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>59</v>
@@ -13257,15 +13257,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>59</v>
@@ -13277,7 +13277,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13285,7 +13285,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>59</v>
@@ -13297,7 +13297,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13305,7 +13305,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -13325,7 +13325,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>59</v>
@@ -13337,7 +13337,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13345,7 +13345,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>59</v>
@@ -13357,7 +13357,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13365,7 +13365,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>59</v>
@@ -13377,7 +13377,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13385,7 +13385,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -13397,7 +13397,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13405,7 +13405,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>59</v>
@@ -13417,7 +13417,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -13425,7 +13425,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>59</v>
@@ -13437,7 +13437,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13445,7 +13445,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>59</v>
@@ -13457,7 +13457,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13465,7 +13465,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>59</v>
@@ -13477,7 +13477,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13485,7 +13485,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>59</v>
@@ -13505,7 +13505,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>59</v>
@@ -13517,7 +13517,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13525,7 +13525,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>59</v>
@@ -13537,7 +13537,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13545,7 +13545,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>59</v>
@@ -13557,7 +13557,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13565,7 +13565,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>59</v>
@@ -13577,7 +13577,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13585,7 +13585,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -13597,7 +13597,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13617,7 +13617,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13637,12 +13637,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>66</v>
@@ -13657,12 +13657,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>66</v>
@@ -13685,7 +13685,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>59</v>
@@ -13697,7 +13697,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13705,7 +13705,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>59</v>
@@ -13725,7 +13725,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -13737,7 +13737,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13745,7 +13745,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -13757,7 +13757,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13765,7 +13765,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -13777,7 +13777,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13785,7 +13785,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>59</v>
@@ -13797,7 +13797,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13805,7 +13805,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -13817,7 +13817,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13842,7 +13842,7 @@
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>66</v>
@@ -13857,7 +13857,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -13970,12 +13970,12 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>66</v>
@@ -13995,10 +13995,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
@@ -14018,7 +14018,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>59</v>
@@ -14030,15 +14030,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>59</v>
@@ -14050,7 +14050,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14058,7 +14058,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>59</v>
@@ -14070,7 +14070,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14078,7 +14078,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -14098,7 +14098,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>59</v>
@@ -14110,7 +14110,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14118,7 +14118,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>59</v>
@@ -14130,7 +14130,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14138,7 +14138,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>59</v>
@@ -14150,7 +14150,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14158,7 +14158,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -14170,7 +14170,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14178,7 +14178,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>59</v>
@@ -14190,7 +14190,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14198,7 +14198,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>59</v>
@@ -14210,7 +14210,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14218,7 +14218,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>59</v>
@@ -14230,7 +14230,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14238,7 +14238,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>59</v>
@@ -14250,7 +14250,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14258,7 +14258,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>59</v>
@@ -14278,7 +14278,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>59</v>
@@ -14290,7 +14290,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>59</v>
@@ -14310,7 +14310,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14318,7 +14318,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>59</v>
@@ -14330,7 +14330,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14338,7 +14338,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>59</v>
@@ -14350,7 +14350,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14358,7 +14358,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -14370,7 +14370,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14390,7 +14390,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14410,12 +14410,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>66</v>
@@ -14430,12 +14430,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>66</v>
@@ -14458,7 +14458,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>59</v>
@@ -14470,7 +14470,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14478,7 +14478,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>59</v>
@@ -14498,7 +14498,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -14510,7 +14510,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14518,7 +14518,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -14530,7 +14530,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14538,7 +14538,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -14550,7 +14550,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14558,7 +14558,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>59</v>
@@ -14570,7 +14570,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14578,7 +14578,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -14590,7 +14590,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14610,7 +14610,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14650,7 +14650,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14678,7 +14678,7 @@
         <v>63</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>59</v>
@@ -14690,7 +14690,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14698,7 +14698,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>59</v>
@@ -14710,7 +14710,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14718,7 +14718,7 @@
         <v>65</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>59</v>
@@ -14730,7 +14730,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14750,7 +14750,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14770,7 +14770,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14795,7 +14795,7 @@
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>66</v>
@@ -14810,7 +14810,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -14923,12 +14923,12 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>66</v>
@@ -14948,10 +14948,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
@@ -14971,7 +14971,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>59</v>
@@ -14983,15 +14983,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>59</v>
@@ -15003,7 +15003,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15011,7 +15011,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>59</v>
@@ -15023,7 +15023,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15031,7 +15031,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>59</v>
@@ -15051,7 +15051,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>59</v>
@@ -15063,7 +15063,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15071,7 +15071,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>59</v>
@@ -15083,7 +15083,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15091,7 +15091,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>59</v>
@@ -15103,7 +15103,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15111,7 +15111,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>59</v>
@@ -15123,7 +15123,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15131,7 +15131,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>59</v>
@@ -15143,7 +15143,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15151,7 +15151,7 @@
         <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>59</v>
@@ -15163,7 +15163,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15171,7 +15171,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>59</v>
@@ -15183,7 +15183,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15191,7 +15191,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>59</v>
@@ -15203,7 +15203,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15211,7 +15211,7 @@
         <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>59</v>
@@ -15231,7 +15231,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>59</v>
@@ -15243,7 +15243,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15251,7 +15251,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>59</v>
@@ -15263,7 +15263,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15271,7 +15271,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>59</v>
@@ -15283,7 +15283,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15291,7 +15291,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>59</v>
@@ -15303,7 +15303,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15311,7 +15311,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -15323,7 +15323,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15343,7 +15343,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15363,12 +15363,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>66</v>
@@ -15383,12 +15383,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>66</v>
@@ -15411,7 +15411,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>59</v>
@@ -15423,7 +15423,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15431,7 +15431,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>59</v>
@@ -15451,7 +15451,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
@@ -15463,7 +15463,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15471,7 +15471,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>59</v>
@@ -15483,7 +15483,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15491,7 +15491,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>59</v>
@@ -15503,7 +15503,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -15511,7 +15511,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>59</v>
@@ -15523,7 +15523,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15531,7 +15531,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
@@ -15543,7 +15543,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -15563,7 +15563,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15696,7 +15696,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15796,7 +15796,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15836,7 +15836,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16156,7 +16156,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16196,7 +16196,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16216,7 +16216,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16236,7 +16236,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16256,7 +16256,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -16276,7 +16276,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16296,7 +16296,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16316,7 +16316,7 @@
         <v>129</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16356,7 +16356,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -16376,7 +16376,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -16389,7 +16389,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16489,7 +16489,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16589,7 +16589,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16629,7 +16629,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16929,7 +16929,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16969,7 +16969,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16989,7 +16989,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17009,7 +17009,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17029,7 +17029,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17049,7 +17049,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17069,7 +17069,7 @@
         <v>129</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17089,7 +17089,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17129,7 +17129,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -17149,7 +17149,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -17262,7 +17262,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17362,7 +17362,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17402,7 +17402,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17482,7 +17482,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17502,7 +17502,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17522,7 +17522,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17542,7 +17542,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17762,7 +17762,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17802,7 +17802,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17822,7 +17822,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17842,7 +17842,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17862,7 +17862,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -17882,7 +17882,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17902,7 +17902,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17922,7 +17922,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17962,7 +17962,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17982,7 +17982,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -17991,6 +17991,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18250,16 +18259,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18277,12 +18285,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503A482-88AC-4A3F-9687-9BEB42E6A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD9F8C-0F57-4A11-A5FD-20225E0DF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="15" activeTab="21" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="1" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="283">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -789,15 +789,6 @@
     <t>red: obligation/prohibition</t>
   </si>
   <si>
-    <t>Must be present if parent element is included. nilReason is not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
-  </si>
-  <si>
-    <t>Strict obligation in IMKL. nilReason not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
-  </si>
-  <si>
-    <t>Strict obligation in IMKL if recordedBy is included. nilReason not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
-  </si>
-  <si>
     <t>waterType</t>
   </si>
   <si>
@@ -962,6 +953,26 @@
   </si>
   <si>
     <t>The ExtraPlan must be linked to one or more utility network elements. The referenced element(s) must exist.</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL. nilReason not allowed. 
+Only numbers, +, /, . and space are allowed.
+The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>Must be present if parent element is included. nilReason is not allowed. 
+Only numbers, +, /, . and space are allowed.
+The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>Must be present if parent element is included. nilReason is not allowed.
+Only numbers, +, /, . and space are allowed.
+The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL if recordedBy is included. nilReason not allowed.
+Only numbers, +, /, . and space are allowed.
+The phone number should include the country code (e.g. +32 for Belgium).</t>
   </si>
 </sst>
 </file>
@@ -1466,86 +1477,86 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45617</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>221</v>
       </c>
@@ -1560,20 +1571,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1594,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1660,10 +1671,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -1760,10 +1771,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -1783,7 +1794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1800,10 +1811,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -1823,7 +1834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -1843,7 +1854,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -1863,7 +1874,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -1880,10 +1891,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -1900,10 +1911,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>139</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +1994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2043,7 +2054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -2223,7 +2234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -2239,11 +2250,11 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2274,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -2280,10 +2291,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -2300,10 +2311,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -2320,10 +2331,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -2340,10 +2351,10 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
@@ -2380,10 +2391,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -2412,21 +2423,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8AAE2A-CE0F-40D3-BDBB-F982DDEB87C4}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2436,7 +2447,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -2513,10 +2524,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -2536,7 +2547,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -2613,10 +2624,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -2653,10 +2664,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -2676,7 +2687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -2733,10 +2744,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -2756,7 +2767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>144</v>
       </c>
@@ -2816,7 +2827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2876,7 +2887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2896,7 +2907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -2936,7 +2947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -2976,7 +2987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -3036,7 +3047,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3092,11 +3103,11 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -3133,10 +3144,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -3153,10 +3164,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -3173,10 +3184,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -3193,10 +3204,10 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -3216,7 +3227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
@@ -3233,10 +3244,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -3266,20 +3277,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3300,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3309,7 +3320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3329,7 +3340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3349,7 +3360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -3366,10 +3377,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -3429,7 +3440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -3449,7 +3460,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -3466,10 +3477,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3506,10 +3517,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -3529,7 +3540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -3549,7 +3560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -3569,7 +3580,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -3586,10 +3597,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -3609,7 +3620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -3629,7 +3640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -3649,9 +3660,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3669,7 +3680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3689,7 +3700,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3709,7 +3720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -3729,7 +3740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -3769,7 +3780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -3789,7 +3800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -3809,7 +3820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -3889,7 +3900,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -3909,7 +3920,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3945,11 +3956,11 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -3969,7 +3980,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -3986,10 +3997,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -4006,10 +4017,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -4026,10 +4037,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4046,10 +4057,10 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -4069,7 +4080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
@@ -4086,10 +4097,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -4119,20 +4130,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4142,7 +4153,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4162,7 +4173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4182,7 +4193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -4219,10 +4230,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -4242,7 +4253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -4262,7 +4273,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -4282,7 +4293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -4319,10 +4330,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -4342,7 +4353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -4359,10 +4370,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -4382,7 +4393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -4439,10 +4450,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -4482,7 +4493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>148</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4542,7 +4553,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -4602,7 +4613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -4622,7 +4633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -4642,7 +4653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -4662,7 +4673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -4722,7 +4733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -4798,11 +4809,11 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -4839,10 +4850,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -4859,10 +4870,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -4879,10 +4890,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4899,10 +4910,10 @@
         <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>140</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
@@ -4939,10 +4950,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>149</v>
       </c>
@@ -4992,20 +5003,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5015,7 +5026,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5035,7 +5046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -5075,7 +5086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -5092,10 +5103,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5115,7 +5126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -5135,7 +5146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -5155,7 +5166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -5175,7 +5186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -5192,10 +5203,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -5215,7 +5226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -5232,10 +5243,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -5275,7 +5286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -5295,7 +5306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>152</v>
       </c>
@@ -5312,10 +5323,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>153</v>
       </c>
@@ -5332,10 +5343,10 @@
         <v>129</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -5352,10 +5363,10 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>138</v>
       </c>
@@ -5372,10 +5383,10 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -5395,7 +5406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -5435,7 +5446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -5455,7 +5466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>120</v>
       </c>
@@ -5495,7 +5506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>121</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
@@ -5535,7 +5546,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -5555,7 +5566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>124</v>
       </c>
@@ -5575,7 +5586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -5615,7 +5626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -5635,7 +5646,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -5651,11 +5662,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -5692,10 +5703,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -5712,10 +5723,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -5732,10 +5743,10 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -5752,10 +5763,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>140</v>
       </c>
@@ -5775,7 +5786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>151</v>
       </c>
@@ -5792,7 +5803,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5804,21 +5815,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2764A8-90B0-4CAB-A949-0A9B643E9D1B}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5828,7 +5839,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5848,7 +5859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -5888,7 +5899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -5905,10 +5916,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -5948,7 +5959,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -5968,7 +5979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -5988,7 +5999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -6008,7 +6019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6048,7 +6059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6085,10 +6096,10 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6108,7 +6119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6128,7 +6139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6148,7 +6159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6168,7 +6179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6188,7 +6199,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -6205,10 +6216,10 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6228,7 +6239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -6268,7 +6279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -6288,7 +6299,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -6328,7 +6339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -6348,7 +6359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -6368,7 +6379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -6388,7 +6399,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6404,11 +6415,11 @@
       <c r="E30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6428,7 +6439,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -6445,10 +6456,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -6465,10 +6476,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -6485,10 +6496,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -6505,10 +6516,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -6525,7 +6536,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6538,20 +6549,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6561,7 +6572,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6581,7 +6592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -6621,7 +6632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -6638,10 +6649,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -6661,7 +6672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -6681,7 +6692,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -6701,7 +6712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -6721,7 +6732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -6741,7 +6752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -6761,7 +6772,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6781,7 +6792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6801,7 +6812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6818,10 +6829,10 @@
         <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6841,7 +6852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6861,7 +6872,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6881,7 +6892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6901,7 +6912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6921,7 +6932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -6938,10 +6949,10 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6961,7 +6972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -6981,7 +6992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -7001,7 +7012,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -7021,7 +7032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -7041,7 +7052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -7081,7 +7092,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -7101,7 +7112,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -7121,7 +7132,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -7137,11 +7148,11 @@
       <c r="E30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -7178,10 +7189,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -7198,10 +7209,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -7218,10 +7229,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -7238,10 +7249,10 @@
         <v>52</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -7258,10 +7269,10 @@
         <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
@@ -7281,7 +7292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>108</v>
       </c>
@@ -7301,7 +7312,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>109</v>
       </c>
@@ -7321,7 +7332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>110</v>
       </c>
@@ -7341,7 +7352,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>111</v>
       </c>
@@ -7370,21 +7381,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F8B36-E73C-4C9F-BA94-837A64017374}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7394,7 +7405,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7414,7 +7425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -7434,7 +7445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -7454,7 +7465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -7471,10 +7482,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -7494,7 +7505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7511,10 +7522,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -7534,7 +7545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -7574,7 +7585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -7591,10 +7602,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7614,7 +7625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -7631,10 +7642,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7654,7 +7665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -7674,7 +7685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -7691,10 +7702,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -7714,7 +7725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -7734,7 +7745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -7754,7 +7765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -7774,7 +7785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -7794,7 +7805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
@@ -7814,7 +7825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -7834,7 +7845,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -7854,7 +7865,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -7870,11 +7881,11 @@
       <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -7894,7 +7905,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -7911,10 +7922,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -7931,10 +7942,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -7954,7 +7965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -7971,10 +7982,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -7991,13 +8002,13 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -8010,20 +8021,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -8033,7 +8044,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8053,7 +8064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8093,7 +8104,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8110,10 +8121,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8133,7 +8144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8150,10 +8161,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8173,7 +8184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8193,7 +8204,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8213,7 +8224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -8230,10 +8241,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -8270,10 +8281,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -8293,7 +8304,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8313,7 +8324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -8330,10 +8341,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -8353,7 +8364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -8373,7 +8384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -8393,7 +8404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -8433,7 +8444,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
@@ -8453,7 +8464,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -8473,7 +8484,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -8493,7 +8504,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -8509,11 +8520,11 @@
       <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -8533,7 +8544,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -8550,10 +8561,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -8570,10 +8581,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -8593,7 +8604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -8610,10 +8621,10 @@
         <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -8630,13 +8641,13 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -8649,20 +8660,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8672,7 +8683,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8692,7 +8703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8712,7 +8723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8732,7 +8743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8749,10 +8760,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8789,10 +8800,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8812,7 +8823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8832,7 +8843,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8852,7 +8863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -8869,10 +8880,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>159</v>
       </c>
@@ -8889,10 +8900,10 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -8912,7 +8923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -8929,10 +8940,10 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -8952,7 +8963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -8972,7 +8983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -8989,10 +9000,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -9012,7 +9023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -9032,7 +9043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -9052,7 +9063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -9072,7 +9083,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -9092,7 +9103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>100</v>
       </c>
@@ -9112,7 +9123,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -9132,7 +9143,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -9152,7 +9163,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -9168,11 +9179,11 @@
       <c r="E26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -9192,7 +9203,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -9209,10 +9220,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -9229,10 +9240,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -9252,7 +9263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -9269,10 +9280,10 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -9289,13 +9300,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -9307,21 +9318,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9331,7 +9342,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9351,7 +9362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -9371,7 +9382,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9388,10 +9399,10 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -9411,7 +9422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -9431,7 +9442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9448,10 +9459,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -9471,7 +9482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
@@ -9491,7 +9502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9511,7 +9522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -9531,7 +9542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -9548,10 +9559,10 @@
         <v>50</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -9571,7 +9582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9591,7 +9602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -9611,7 +9622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -9631,7 +9642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -9647,11 +9658,11 @@
       <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -9671,7 +9682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9688,10 +9699,10 @@
         <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9708,10 +9719,10 @@
         <v>52</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9728,10 +9739,10 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9748,10 +9759,10 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -9781,20 +9792,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9804,7 +9815,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9824,7 +9835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -9844,7 +9855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -9864,7 +9875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -9881,10 +9892,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -9904,7 +9915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -9921,10 +9932,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -9944,7 +9955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -9964,7 +9975,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -9984,7 +9995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -10001,10 +10012,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>160</v>
       </c>
@@ -10021,10 +10032,10 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -10044,7 +10055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -10061,10 +10072,10 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -10084,7 +10095,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -10104,7 +10115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -10121,10 +10132,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -10144,7 +10155,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -10164,7 +10175,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -10184,7 +10195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -10204,7 +10215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -10224,7 +10235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>100</v>
       </c>
@@ -10244,7 +10255,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -10264,7 +10275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -10284,7 +10295,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -10300,11 +10311,11 @@
       <c r="E26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -10324,7 +10335,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -10341,10 +10352,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -10361,10 +10372,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -10384,7 +10395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -10401,10 +10412,10 @@
         <v>52</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -10421,13 +10432,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -10443,17 +10454,17 @@
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10463,7 +10474,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10483,7 +10494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10503,7 +10514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10523,7 +10534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10540,10 +10551,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10563,7 +10574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10583,7 +10594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>161</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>162</v>
       </c>
@@ -10623,7 +10634,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>163</v>
       </c>
@@ -10643,7 +10654,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10663,43 +10674,43 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10707,22 +10718,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10730,19 +10741,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10754,21 +10765,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97D51E3-6157-4789-B11D-E5D0ED63B0B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -10778,7 +10789,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10798,7 +10809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10818,7 +10829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10838,7 +10849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10855,10 +10866,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10878,7 +10889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>161</v>
       </c>
@@ -10918,7 +10929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>162</v>
       </c>
@@ -10938,7 +10949,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>163</v>
       </c>
@@ -10958,7 +10969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10978,7 +10989,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>167</v>
       </c>
@@ -10995,10 +11006,10 @@
         <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
@@ -11018,7 +11029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
@@ -11038,7 +11049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>100</v>
       </c>
@@ -11058,7 +11069,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
@@ -11078,7 +11089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -11098,7 +11109,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
@@ -11114,11 +11125,11 @@
       <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -11138,7 +11149,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -11155,10 +11166,10 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -11175,16 +11186,16 @@
         <v>50</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11192,22 +11203,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11215,19 +11226,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -11243,17 +11254,17 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -11263,7 +11274,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11283,7 +11294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11303,7 +11314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11323,7 +11334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11340,10 +11351,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -11363,7 +11374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11380,10 +11391,10 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>170</v>
       </c>
@@ -11403,7 +11414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>171</v>
       </c>
@@ -11420,10 +11431,10 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>168</v>
       </c>
@@ -11443,7 +11454,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -11463,7 +11474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>172</v>
       </c>
@@ -11483,16 +11494,16 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
@@ -11505,20 +11516,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11528,7 +11539,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11548,7 +11559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11568,7 +11579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11588,7 +11599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11605,10 +11616,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -11628,7 +11639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11648,7 +11659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>175</v>
       </c>
@@ -11668,7 +11679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -11688,7 +11699,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
@@ -11708,7 +11719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -11728,7 +11739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>101</v>
       </c>
@@ -11748,7 +11759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -11768,7 +11779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -11784,11 +11795,11 @@
       <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
@@ -11825,10 +11836,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -11845,10 +11856,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -11878,20 +11889,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -11901,7 +11912,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11921,7 +11932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11941,7 +11952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11961,7 +11972,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11978,10 +11989,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11998,10 +12009,10 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -12018,10 +12029,10 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>168</v>
       </c>
@@ -12038,10 +12049,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
@@ -12061,7 +12072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -12081,7 +12092,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -12101,7 +12112,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -12121,7 +12132,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -12137,11 +12148,11 @@
       <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -12161,7 +12172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -12178,10 +12189,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -12198,7 +12209,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -12211,20 +12222,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -12234,7 +12245,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12254,7 +12265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -12274,7 +12285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -12294,7 +12305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12311,10 +12322,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -12334,7 +12345,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>202</v>
       </c>
@@ -12354,7 +12365,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>203</v>
       </c>
@@ -12374,7 +12385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>205</v>
       </c>
@@ -12394,7 +12405,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>206</v>
       </c>
@@ -12414,7 +12425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
@@ -12434,7 +12445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12454,7 +12465,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12471,30 +12482,30 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -12514,7 +12525,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>
@@ -12544,20 +12555,20 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -12567,7 +12578,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12587,7 +12598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -12607,7 +12618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>179</v>
       </c>
@@ -12627,7 +12638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -12647,7 +12658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -12667,7 +12678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -12687,7 +12698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>180</v>
       </c>
@@ -12707,7 +12718,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
@@ -12727,7 +12738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
@@ -12747,7 +12758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -12767,7 +12778,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12787,7 +12798,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12804,10 +12815,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -12827,7 +12838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -12844,10 +12855,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -12867,7 +12878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -12887,7 +12898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -12907,7 +12918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -12927,7 +12938,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -12947,7 +12958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -12967,7 +12978,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -12983,11 +12994,11 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13007,7 +13018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -13024,10 +13035,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -13044,10 +13055,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>177</v>
       </c>
@@ -13067,7 +13078,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -13096,21 +13107,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D942B28-BE2C-4879-B771-95BEB360A522}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -13120,7 +13131,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13140,7 +13151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13160,7 +13171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13180,7 +13191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13197,10 +13208,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -13220,9 +13231,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>188</v>
@@ -13240,7 +13251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -13260,7 +13271,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>190</v>
       </c>
@@ -13280,7 +13291,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -13300,7 +13311,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -13320,7 +13331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -13340,7 +13351,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13356,11 +13367,11 @@
       <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -13380,7 +13391,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
@@ -13397,10 +13408,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -13417,10 +13428,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -13437,10 +13448,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>124</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -13480,7 +13491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -13500,7 +13511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -13520,7 +13531,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -13536,11 +13547,11 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13560,7 +13571,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -13577,10 +13588,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -13597,10 +13608,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -13620,7 +13631,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -13637,10 +13648,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -13657,10 +13668,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -13680,7 +13691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -13700,7 +13711,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -13720,7 +13731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -13740,7 +13751,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -13756,11 +13767,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -13780,7 +13791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -13797,10 +13808,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -13817,10 +13828,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -13840,7 +13851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>177</v>
       </c>
@@ -13857,7 +13868,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -13870,20 +13881,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -13893,7 +13904,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13913,7 +13924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13933,7 +13944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13953,7 +13964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13970,10 +13981,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -13993,9 +14004,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>188</v>
@@ -14013,7 +14024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -14033,7 +14044,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>190</v>
       </c>
@@ -14053,7 +14064,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -14073,7 +14084,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -14093,7 +14104,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -14113,7 +14124,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -14129,11 +14140,11 @@
       <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -14153,7 +14164,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
@@ -14170,10 +14181,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -14190,10 +14201,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -14210,10 +14221,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>124</v>
       </c>
@@ -14233,7 +14244,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -14253,7 +14264,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -14273,7 +14284,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -14293,7 +14304,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -14309,11 +14320,11 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -14333,7 +14344,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -14350,10 +14361,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -14370,10 +14381,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -14393,7 +14404,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -14410,10 +14421,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -14430,10 +14441,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -14453,7 +14464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -14473,7 +14484,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -14493,7 +14504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -14513,7 +14524,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -14529,11 +14540,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -14553,7 +14564,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -14570,10 +14581,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -14590,10 +14601,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
@@ -14613,7 +14624,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>124</v>
       </c>
@@ -14633,7 +14644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
@@ -14653,7 +14664,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
@@ -14673,7 +14684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
@@ -14693,7 +14704,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
@@ -14709,11 +14720,11 @@
       <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>65</v>
       </c>
@@ -14733,7 +14744,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>102</v>
       </c>
@@ -14750,10 +14761,10 @@
         <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
@@ -14770,10 +14781,10 @@
         <v>50</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -14793,7 +14804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>177</v>
       </c>
@@ -14810,7 +14821,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -14822,21 +14833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B140CE-B260-4273-B7CB-D8C81EBB6EBD}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -14846,7 +14857,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14866,7 +14877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -14886,7 +14897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -14906,7 +14917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -14923,10 +14934,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -14946,9 +14957,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>188</v>
@@ -14966,7 +14977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -14986,7 +14997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>190</v>
       </c>
@@ -15006,7 +15017,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -15026,7 +15037,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -15046,7 +15057,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -15066,7 +15077,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -15082,11 +15093,11 @@
       <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -15106,7 +15117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -15123,10 +15134,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -15143,10 +15154,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>168</v>
       </c>
@@ -15166,7 +15177,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>124</v>
       </c>
@@ -15186,7 +15197,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -15206,7 +15217,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -15226,7 +15237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -15246,7 +15257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -15262,11 +15273,11 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -15286,7 +15297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -15303,10 +15314,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -15323,10 +15334,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -15346,7 +15357,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -15363,10 +15374,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -15383,10 +15394,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -15406,7 +15417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -15426,7 +15437,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -15446,7 +15457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -15466,7 +15477,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -15482,11 +15493,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -15506,7 +15517,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -15523,10 +15534,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -15543,10 +15554,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -15566,7 +15577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -15596,20 +15607,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15619,7 +15630,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15639,7 +15650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -15659,7 +15670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -15679,7 +15690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -15696,10 +15707,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -15719,7 +15730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -15739,7 +15750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -15759,7 +15770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -15779,7 +15790,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -15796,10 +15807,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -15819,7 +15830,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -15836,10 +15847,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -15859,7 +15870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -15879,7 +15890,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -15899,7 +15910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
@@ -15919,7 +15930,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>119</v>
       </c>
@@ -15939,7 +15950,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -15959,7 +15970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -15979,7 +15990,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
@@ -15999,7 +16010,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -16019,7 +16030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
@@ -16039,7 +16050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
@@ -16059,7 +16070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>121</v>
       </c>
@@ -16079,7 +16090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>122</v>
       </c>
@@ -16099,7 +16110,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>123</v>
       </c>
@@ -16119,7 +16130,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>124</v>
       </c>
@@ -16139,7 +16150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
@@ -16159,7 +16170,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>101</v>
       </c>
@@ -16179,7 +16190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -16199,7 +16210,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -16215,11 +16226,11 @@
       <c r="E31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -16239,7 +16250,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -16256,10 +16267,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>103</v>
       </c>
@@ -16276,10 +16287,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -16296,10 +16307,10 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -16316,10 +16327,10 @@
         <v>129</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -16339,7 +16350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>125</v>
       </c>
@@ -16356,10 +16367,10 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -16376,7 +16387,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -16389,20 +16400,20 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16412,7 +16423,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -16432,7 +16443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -16452,7 +16463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -16472,7 +16483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -16489,10 +16500,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -16512,7 +16523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -16532,7 +16543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -16552,7 +16563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -16572,7 +16583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -16589,10 +16600,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -16612,7 +16623,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -16629,10 +16640,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -16652,7 +16663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -16672,7 +16683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -16692,7 +16703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -16712,7 +16723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -16732,7 +16743,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -16752,7 +16763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -16772,7 +16783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -16792,7 +16803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
@@ -16812,7 +16823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>120</v>
       </c>
@@ -16832,7 +16843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>121</v>
       </c>
@@ -16852,7 +16863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>122</v>
       </c>
@@ -16872,7 +16883,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>123</v>
       </c>
@@ -16892,7 +16903,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>124</v>
       </c>
@@ -16912,7 +16923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -16932,7 +16943,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -16952,7 +16963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -16972,7 +16983,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -16988,11 +16999,11 @@
       <c r="E30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -17012,7 +17023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -17029,10 +17040,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -17049,10 +17060,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
@@ -17069,10 +17080,10 @@
         <v>129</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
@@ -17089,10 +17100,10 @@
         <v>129</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -17112,7 +17123,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>125</v>
       </c>
@@ -17129,10 +17140,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>126</v>
       </c>
@@ -17149,7 +17160,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -17161,21 +17172,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17185,7 +17196,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -17205,7 +17216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -17225,7 +17236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -17245,7 +17256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -17262,10 +17273,10 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -17285,7 +17296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -17305,7 +17316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -17325,7 +17336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -17345,7 +17356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -17362,10 +17373,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -17385,7 +17396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -17402,10 +17413,10 @@
         <v>129</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -17425,7 +17436,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -17445,7 +17456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -17465,7 +17476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -17482,10 +17493,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>136</v>
       </c>
@@ -17502,10 +17513,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -17522,10 +17533,10 @@
         <v>129</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>138</v>
       </c>
@@ -17542,10 +17553,10 @@
         <v>129</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -17565,7 +17576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -17585,7 +17596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -17605,7 +17616,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -17625,7 +17636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -17645,7 +17656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>120</v>
       </c>
@@ -17665,7 +17676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>121</v>
       </c>
@@ -17685,7 +17696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
@@ -17705,7 +17716,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -17725,7 +17736,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>124</v>
       </c>
@@ -17745,7 +17756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -17765,7 +17776,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -17785,7 +17796,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -17805,7 +17816,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -17821,11 +17832,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -17862,10 +17873,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -17882,10 +17893,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -17902,10 +17913,10 @@
         <v>129</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -17922,10 +17933,10 @@
         <v>129</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>140</v>
       </c>
@@ -17945,7 +17956,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>141</v>
       </c>
@@ -17962,10 +17973,10 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -17982,7 +17993,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD9F8C-0F57-4A11-A5FD-20225E0DF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64959657-E12C-40E6-8E88-53773A012D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="1" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="4" activeTab="9" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="285">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -973,6 +973,12 @@
     <t>Strict obligation in IMKL if recordedBy is included. nilReason not allowed.
 Only numbers, +, /, . and space are allowed.
 The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>inSharedContainer</t>
+  </si>
+  <si>
+    <t>Strongly recommended to include if applicable.</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BC120-06A7-4659-AA0B-1A9C52390F35}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,63 +2360,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="B42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2421,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8AAE2A-CE0F-40D3-BDBB-F982DDEB87C4}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3207,63 +3233,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="B42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3274,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0553AC-C8D7-405B-BF7B-D5436FA88A29}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4060,63 +4106,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="B42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4127,10 +4193,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804D63D-6629-4BE3-A1A2-E77803CCA220}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4913,83 +4979,103 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="B42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="B44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5000,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C4A39-D091-4F9C-AEF2-5DBA43781AAD}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5766,43 +5852,63 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="19" t="s">
+      <c r="B41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9318,7 +9424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -10766,7 +10872,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13107,7 +13213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D942B28-BE2C-4879-B771-95BEB360A522}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -15604,10 +15710,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10101923-3348-4496-9274-4B73928D2D00}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16330,63 +16436,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>263</v>
       </c>
     </row>
@@ -16397,10 +16523,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17103,63 +17229,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="B37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="19" t="s">
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>263</v>
       </c>
     </row>
@@ -17170,10 +17316,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A39" sqref="A39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17936,63 +18082,83 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="19" t="s">
+      <c r="B41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -18002,6 +18168,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18261,16 +18436,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18288,12 +18462,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64959657-E12C-40E6-8E88-53773A012D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6BCA8-0108-4AB0-8101-CE8BC16E8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="4" activeTab="9" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15990" firstSheet="13" activeTab="21" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="286">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -979,6 +979,10 @@
   </si>
   <si>
     <t>Strongly recommended to include if applicable.</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
+Geometry must be a valid geometry. Multipart geometries are not allowed.</t>
   </si>
 </sst>
 </file>
@@ -1486,83 +1490,83 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>45617</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>221</v>
       </c>
@@ -1576,21 +1580,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BC120-06A7-4659-AA0B-1A9C52390F35}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1604,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>139</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -2453,17 +2457,17 @@
       <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>144</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -3326,17 +3330,17 @@
       <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>233</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3746,7 +3750,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -4199,17 +4203,17 @@
       <selection activeCell="A40" sqref="A40:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4219,7 +4223,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>136</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>138</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>148</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>123</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>124</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -4839,7 +4843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -4879,7 +4883,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>103</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>283</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>140</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>149</v>
       </c>
@@ -5092,17 +5096,17 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5112,7 +5116,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>152</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>153</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>138</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -5512,7 +5516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>120</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>121</v>
       </c>
@@ -5612,7 +5616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>124</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -5732,7 +5736,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>283</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>151</v>
       </c>
@@ -5925,17 +5929,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5945,7 +5949,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -6445,7 +6449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -6505,7 +6509,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -6625,7 +6629,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -6658,17 +6662,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6678,7 +6682,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>74</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>89</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -7038,7 +7042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -7078,7 +7082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -7098,7 +7102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>80</v>
       </c>
@@ -7158,7 +7162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -7278,7 +7282,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>107</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>108</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>109</v>
       </c>
@@ -7438,7 +7442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>110</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>111</v>
       </c>
@@ -7491,17 +7495,17 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7511,7 +7515,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -7551,7 +7555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -7591,7 +7595,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -7911,7 +7915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -8011,7 +8015,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -8071,7 +8075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -8091,7 +8095,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -8111,10 +8115,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -8130,17 +8134,17 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -8150,7 +8154,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -8450,7 +8454,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>78</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
@@ -8530,7 +8534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -8550,7 +8554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>100</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -8670,7 +8674,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>103</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
@@ -8750,10 +8754,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
   </sheetData>
@@ -8769,17 +8773,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8789,7 +8793,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -8929,7 +8933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -8989,7 +8993,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>159</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -9129,7 +9133,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -9149,7 +9153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>100</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -9309,7 +9313,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -9349,7 +9353,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -9409,10 +9413,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -9428,17 +9432,17 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9448,7 +9452,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9508,7 +9512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -9548,7 +9552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
@@ -9608,7 +9612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -9728,7 +9732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9901,17 +9905,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9921,7 +9925,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -9961,7 +9965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
@@ -9981,7 +9985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -10001,7 +10005,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -10041,7 +10045,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>156</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>160</v>
       </c>
@@ -10141,7 +10145,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -10181,7 +10185,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>78</v>
       </c>
@@ -10261,7 +10265,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -10301,7 +10305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
@@ -10321,7 +10325,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -10341,7 +10345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>100</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>101</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -10421,7 +10425,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -10441,7 +10445,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -10521,7 +10525,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -10541,10 +10545,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -10560,17 +10564,17 @@
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10580,7 +10584,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>161</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>162</v>
       </c>
@@ -10740,7 +10744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>163</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -10780,43 +10784,43 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10824,22 +10828,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10847,19 +10851,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10871,21 +10875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97D51E3-6157-4789-B11D-E5D0ED63B0B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -10895,7 +10899,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10935,7 +10939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10975,7 +10979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10995,7 +10999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>161</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>162</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>163</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -11095,7 +11099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>167</v>
       </c>
@@ -11115,7 +11119,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
@@ -11132,10 +11136,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
@@ -11155,7 +11159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>100</v>
       </c>
@@ -11175,7 +11179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>101</v>
       </c>
@@ -11195,7 +11199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -11275,7 +11279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -11295,13 +11299,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11309,22 +11313,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11332,19 +11336,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -11360,17 +11364,17 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -11380,7 +11384,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11400,7 +11404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
@@ -11480,7 +11484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11500,7 +11504,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>170</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>171</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>168</v>
       </c>
@@ -11560,7 +11564,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -11580,7 +11584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>172</v>
       </c>
@@ -11600,16 +11604,16 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
@@ -11625,17 +11629,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11645,7 +11649,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11705,7 +11709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11725,7 +11729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -11745,7 +11749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11765,7 +11769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>175</v>
       </c>
@@ -11785,7 +11789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -11805,7 +11809,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>101</v>
       </c>
@@ -11865,7 +11869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -11905,7 +11909,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -11925,7 +11929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>102</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
@@ -11965,7 +11969,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -11998,17 +12002,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -12018,7 +12022,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12038,7 +12042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -12078,7 +12082,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -12118,7 +12122,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -12138,7 +12142,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>168</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -12238,7 +12242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -12298,7 +12302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -12331,17 +12335,17 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -12351,7 +12355,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -12391,7 +12395,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12431,7 +12435,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -12451,7 +12455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>202</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>203</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>205</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>206</v>
       </c>
@@ -12531,7 +12535,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>71</v>
       </c>
@@ -12551,7 +12555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12571,7 +12575,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
@@ -12611,7 +12615,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>
@@ -12664,17 +12668,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -12684,7 +12688,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12704,7 +12708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -12724,7 +12728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>179</v>
       </c>
@@ -12744,7 +12748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -12764,7 +12768,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -12784,7 +12788,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>176</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>180</v>
       </c>
@@ -12824,7 +12828,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
@@ -12844,7 +12848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -12884,7 +12888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
@@ -12904,7 +12908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -12924,7 +12928,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -12944,7 +12948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -12964,7 +12968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -12984,7 +12988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -13004,7 +13008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -13024,7 +13028,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -13064,7 +13068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -13084,7 +13088,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -13104,7 +13108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -13144,7 +13148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -13164,7 +13168,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>177</v>
       </c>
@@ -13184,7 +13188,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -13217,17 +13221,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -13237,7 +13241,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13257,7 +13261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13297,7 +13301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13317,7 +13321,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>235</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>190</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -13417,7 +13421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -13497,7 +13501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -13537,7 +13541,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -13557,7 +13561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>124</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -13597,7 +13601,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -13617,7 +13621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -13637,7 +13641,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -13657,7 +13661,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -13697,7 +13701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -13717,7 +13721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -13777,7 +13781,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -13817,7 +13821,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -13837,7 +13841,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -13857,7 +13861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -13917,7 +13921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -13957,7 +13961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>177</v>
       </c>
@@ -13990,17 +13994,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -14010,7 +14014,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14030,7 +14034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -14050,7 +14054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -14070,7 +14074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -14090,7 +14094,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -14110,7 +14114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>235</v>
       </c>
@@ -14130,7 +14134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
@@ -14150,7 +14154,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>190</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -14190,7 +14194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -14210,7 +14214,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -14230,7 +14234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -14250,7 +14254,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
@@ -14290,7 +14294,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -14310,7 +14314,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>168</v>
       </c>
@@ -14330,7 +14334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>124</v>
       </c>
@@ -14350,7 +14354,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -14370,7 +14374,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -14390,7 +14394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -14410,7 +14414,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -14430,7 +14434,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -14490,7 +14494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -14510,7 +14514,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -14530,7 +14534,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -14550,7 +14554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -14590,7 +14594,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -14630,7 +14634,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -14650,7 +14654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -14710,7 +14714,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
@@ -14730,7 +14734,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>124</v>
       </c>
@@ -14750,7 +14754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
@@ -14810,7 +14814,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>64</v>
       </c>
@@ -14830,7 +14834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>65</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>102</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
@@ -14890,7 +14894,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -14910,7 +14914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>177</v>
       </c>
@@ -14943,17 +14947,17 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -14963,7 +14967,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14983,7 +14987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -15003,7 +15007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -15023,7 +15027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -15043,7 +15047,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -15063,7 +15067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>235</v>
       </c>
@@ -15083,7 +15087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -15103,7 +15107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>190</v>
       </c>
@@ -15123,7 +15127,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
@@ -15163,7 +15167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
@@ -15183,7 +15187,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -15203,7 +15207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
@@ -15223,7 +15227,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -15243,7 +15247,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -15263,7 +15267,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>168</v>
       </c>
@@ -15283,7 +15287,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>124</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -15323,7 +15327,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -15403,7 +15407,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -15423,7 +15427,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -15443,7 +15447,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -15463,7 +15467,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>82</v>
       </c>
@@ -15483,7 +15487,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>189</v>
       </c>
@@ -15503,7 +15507,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>190</v>
       </c>
@@ -15523,7 +15527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -15543,7 +15547,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -15563,7 +15567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -15623,7 +15627,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>102</v>
       </c>
@@ -15643,7 +15647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -15663,7 +15667,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -15683,7 +15687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -15716,17 +15720,17 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15736,7 +15740,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15756,7 +15760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -15816,7 +15820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -15836,7 +15840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -15856,7 +15860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -15896,7 +15900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -15916,7 +15920,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -15936,7 +15940,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -15956,7 +15960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -15976,7 +15980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>118</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>119</v>
       </c>
@@ -16056,7 +16060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -16076,7 +16080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -16096,7 +16100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>78</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -16136,7 +16140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
@@ -16156,7 +16160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
@@ -16176,7 +16180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>121</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>122</v>
       </c>
@@ -16216,7 +16220,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>123</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>124</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
@@ -16276,7 +16280,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>101</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
@@ -16316,7 +16320,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -16336,7 +16340,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -16356,7 +16360,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -16376,7 +16380,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>103</v>
       </c>
@@ -16396,7 +16400,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -16436,7 +16440,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>283</v>
       </c>
@@ -16456,7 +16460,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -16476,7 +16480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>125</v>
       </c>
@@ -16496,7 +16500,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>126</v>
       </c>
@@ -16529,17 +16533,17 @@
       <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16549,7 +16553,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -16569,7 +16573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -16589,7 +16593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -16609,7 +16613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -16649,7 +16653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -16669,7 +16673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -16709,7 +16713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -16729,7 +16733,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -16749,7 +16753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -16769,7 +16773,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -16789,7 +16793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -16849,7 +16853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -16869,7 +16873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -16889,7 +16893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -16929,7 +16933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>120</v>
       </c>
@@ -16969,7 +16973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>121</v>
       </c>
@@ -16989,7 +16993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>122</v>
       </c>
@@ -17009,7 +17013,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>123</v>
       </c>
@@ -17029,7 +17033,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>124</v>
       </c>
@@ -17049,7 +17053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
@@ -17069,7 +17073,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -17089,7 +17093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -17109,7 +17113,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -17129,7 +17133,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
@@ -17149,7 +17153,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>102</v>
       </c>
@@ -17169,7 +17173,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>103</v>
       </c>
@@ -17189,7 +17193,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
@@ -17209,7 +17213,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>283</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -17269,7 +17273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>125</v>
       </c>
@@ -17289,7 +17293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -17322,17 +17326,17 @@
       <selection activeCell="A39" sqref="A39:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17342,7 +17346,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -17362,7 +17366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -17382,7 +17386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -17402,7 +17406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -17422,7 +17426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -17442,7 +17446,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>115</v>
       </c>
@@ -17462,7 +17466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -17482,7 +17486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -17502,7 +17506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -17542,7 +17546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -17562,7 +17566,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -17582,7 +17586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>116</v>
       </c>
@@ -17602,7 +17606,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>117</v>
       </c>
@@ -17622,7 +17626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>135</v>
       </c>
@@ -17642,7 +17646,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>136</v>
       </c>
@@ -17662,7 +17666,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -17682,7 +17686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>138</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -17722,7 +17726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -17742,7 +17746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>78</v>
       </c>
@@ -17762,7 +17766,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -17782,7 +17786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>98</v>
       </c>
@@ -17802,7 +17806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>120</v>
       </c>
@@ -17822,7 +17826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>121</v>
       </c>
@@ -17842,7 +17846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>122</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>123</v>
       </c>
@@ -17882,7 +17886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>124</v>
       </c>
@@ -17902,7 +17906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>100</v>
       </c>
@@ -17922,7 +17926,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>101</v>
       </c>
@@ -17942,7 +17946,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
@@ -17982,7 +17986,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -18002,7 +18006,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -18022,7 +18026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>103</v>
       </c>
@@ -18042,7 +18046,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>43</v>
       </c>
@@ -18062,7 +18066,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
@@ -18082,7 +18086,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>283</v>
       </c>
@@ -18102,7 +18106,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>140</v>
       </c>
@@ -18122,7 +18126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>141</v>
       </c>
@@ -18142,7 +18146,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -18168,15 +18172,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18436,15 +18431,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18462,4 +18458,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_ExtraRules.xlsx
+++ b/implementation/Documentation/IMKL3_ExtraRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6BCA8-0108-4AB0-8101-CE8BC16E8CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C375941-E141-42D6-81D4-4FD63152BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15990" firstSheet="13" activeTab="21" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -828,9 +828,6 @@
     <t>Mandatory when one or more ExtraPlan objects are present. The referenced Document(s) must exist.</t>
   </si>
   <si>
-    <t>v4.0</t>
-  </si>
-  <si>
     <t>Mandatory when one or more elements are present. The referenced element(s) must exist.
 Empty networks are not allowed. Each network must contain at least 1 element, ActivityComplex or ProtectedArea.</t>
   </si>
@@ -983,6 +980,9 @@
   <si>
     <t>Strict obligation in IMKL. Additional check on the use of Lambert2008 coordinates and on presence of the srsDimension. The srsDimension must be set to 2 or 3.
 Geometry must be a valid geometry. Multipart geometries are not allowed.</t>
+  </si>
+  <si>
+    <t>v5.0</t>
   </si>
 </sst>
 </file>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC605C2-C5D4-4825-9E11-90EE9076291A}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
-        <v>45617</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2366,22 +2366,22 @@
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3239,22 +3239,22 @@
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4112,22 +4112,22 @@
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4400,7 +4400,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4920,7 +4920,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4985,22 +4985,22 @@
     </row>
     <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5413,7 +5413,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5753,7 +5753,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5793,7 +5793,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5858,22 +5858,22 @@
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5913,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6026,7 +6026,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6326,7 +6326,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6526,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6586,7 +6586,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6606,7 +6606,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6759,7 +6759,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7059,7 +7059,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7259,7 +7259,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7752,7 +7752,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8032,7 +8032,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8451,7 +8451,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8631,7 +8631,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8691,7 +8691,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8870,7 +8870,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -9010,7 +9010,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9050,7 +9050,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9110,7 +9110,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9290,7 +9290,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9330,7 +9330,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9350,7 +9350,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9509,7 +9509,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9769,7 +9769,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9849,7 +9849,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -9869,7 +9869,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -10002,7 +10002,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10142,7 +10142,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10242,7 +10242,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10422,7 +10422,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10462,7 +10462,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10661,7 +10661,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10875,7 +10875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97D51E3-6157-4789-B11D-E5D0ED63B0B3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -10976,7 +10976,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11116,7 +11116,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11236,7 +11236,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11296,7 +11296,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -11461,7 +11461,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11501,7 +11501,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11906,7 +11906,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11946,7 +11946,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -11966,7 +11966,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -12119,7 +12119,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -12139,7 +12139,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -12159,7 +12159,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -12259,7 +12259,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -12319,7 +12319,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -12432,7 +12432,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12592,7 +12592,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12925,7 +12925,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12965,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13145,7 +13145,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13165,7 +13165,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13318,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -13478,7 +13478,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13518,7 +13518,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13538,7 +13538,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -13558,7 +13558,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13658,7 +13658,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -13698,7 +13698,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13718,7 +13718,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13758,7 +13758,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13778,7 +13778,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -13878,7 +13878,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13918,7 +13918,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -14091,7 +14091,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14251,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14291,7 +14291,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14311,7 +14311,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14331,7 +14331,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -14471,7 +14471,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14491,7 +14491,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14531,7 +14531,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14551,7 +14551,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -14651,7 +14651,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -14691,7 +14691,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14711,7 +14711,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14831,7 +14831,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -14871,7 +14871,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14891,7 +14891,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15044,7 +15044,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15204,7 +15204,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15244,7 +15244,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15264,7 +15264,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15384,7 +15384,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -15424,7 +15424,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15444,7 +15444,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15484,7 +15484,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15504,7 +15504,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -15644,7 +15644,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15664,7 +15664,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -15817,7 +15817,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16337,7 +16337,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -16377,7 +16377,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -16397,7 +16397,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16442,22 +16442,22 @@
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -16517,7 +16517,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -16630,7 +16630,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -16730,7 +16730,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17130,7 +17130,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -17170,7 +17170,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -17190,7 +17190,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17235,22 +17235,22 @@
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -17290,7 +17290,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -17310,7 +17310,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -17423,7 +17423,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -17523,7 +17523,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -17643,7 +17643,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -17983,7 +17983,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -18023,7 +18023,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -18043,7 +18043,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -18088,22 +18088,22 @@
     </row>
     <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -18143,7 +18143,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -18172,6 +18172,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18431,16 +18440,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18458,12 +18466,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>